--- a/veiculos.xlsx
+++ b/veiculos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="24000" windowHeight="9720"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="24000" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -656,7 +656,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,7 +666,7 @@
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="48.5703125" customWidth="1"/>
+    <col min="6" max="6" width="56.140625" customWidth="1"/>
     <col min="7" max="7" width="45.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
   </cols>
@@ -696,233 +696,233 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="E2">
-        <v>12800</v>
+        <v>7500</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E3">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="E4">
-        <v>11000</v>
+        <v>8299</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="E5">
-        <v>12500</v>
+        <v>8299</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="E6">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E7">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E8">
-        <v>12900</v>
+        <v>9000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E9">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="E10">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s">
         <v>55</v>
@@ -930,80 +930,80 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="E11">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>11000</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13">
-        <v>12000</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1034,137 +1034,137 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="E15">
-        <v>10000</v>
+        <v>11300</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="E16">
-        <v>8299</v>
+        <v>12000</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="E17">
-        <v>12800</v>
+        <v>12000</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E18">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="E19">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -1190,322 +1190,325 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="E21">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E22">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E23">
-        <v>12900</v>
+        <v>12500</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="E24">
-        <v>13000</v>
+        <v>12800</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="E25">
-        <v>7500</v>
+        <v>12800</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H25" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E26">
-        <v>8500</v>
+        <v>12900</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="H26" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E27">
-        <v>12500</v>
+        <v>12900</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="H27" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="E28">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="H28" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E29">
-        <v>11300</v>
+        <v>13000</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="H29" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>76</v>
-      </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="E30">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="H30" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="E31">
-        <v>8299</v>
+        <v>13000</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:H31">
+    <sortCondition ref="E1"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F4" r:id="rId2"/>
-    <hyperlink ref="F3" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F7" r:id="rId5"/>
-    <hyperlink ref="F6" r:id="rId6"/>
-    <hyperlink ref="F30" r:id="rId7"/>
-    <hyperlink ref="F8" r:id="rId8"/>
-    <hyperlink ref="F10" r:id="rId9"/>
-    <hyperlink ref="F13" r:id="rId10"/>
-    <hyperlink ref="F11" r:id="rId11"/>
-    <hyperlink ref="F12" r:id="rId12"/>
-    <hyperlink ref="F9" r:id="rId13"/>
+    <hyperlink ref="F24" r:id="rId1"/>
+    <hyperlink ref="F12" r:id="rId2"/>
+    <hyperlink ref="F8" r:id="rId3"/>
+    <hyperlink ref="F20" r:id="rId4"/>
+    <hyperlink ref="F16" r:id="rId5"/>
+    <hyperlink ref="F28" r:id="rId6"/>
+    <hyperlink ref="F11" r:id="rId7"/>
+    <hyperlink ref="F26" r:id="rId8"/>
+    <hyperlink ref="F2" r:id="rId9"/>
+    <hyperlink ref="F17" r:id="rId10"/>
+    <hyperlink ref="F6" r:id="rId11"/>
+    <hyperlink ref="F21" r:id="rId12"/>
+    <hyperlink ref="F29" r:id="rId13"/>
     <hyperlink ref="F14" r:id="rId14"/>
-    <hyperlink ref="F15" r:id="rId15"/>
-    <hyperlink ref="F16" r:id="rId16"/>
-    <hyperlink ref="F17" r:id="rId17"/>
-    <hyperlink ref="F19" r:id="rId18"/>
-    <hyperlink ref="F18" r:id="rId19"/>
-    <hyperlink ref="F20" r:id="rId20"/>
-    <hyperlink ref="F21" r:id="rId21"/>
-    <hyperlink ref="F22" r:id="rId22"/>
-    <hyperlink ref="F27" r:id="rId23"/>
-    <hyperlink ref="F26" r:id="rId24"/>
-    <hyperlink ref="F25" r:id="rId25"/>
-    <hyperlink ref="F24" r:id="rId26"/>
-    <hyperlink ref="F23" r:id="rId27"/>
-    <hyperlink ref="F28" r:id="rId28"/>
-    <hyperlink ref="F29" r:id="rId29"/>
-    <hyperlink ref="F31" r:id="rId30"/>
+    <hyperlink ref="F10" r:id="rId15"/>
+    <hyperlink ref="F4" r:id="rId16"/>
+    <hyperlink ref="F25" r:id="rId17"/>
+    <hyperlink ref="F13" r:id="rId18"/>
+    <hyperlink ref="F9" r:id="rId19"/>
+    <hyperlink ref="F22" r:id="rId20"/>
+    <hyperlink ref="F30" r:id="rId21"/>
+    <hyperlink ref="F18" r:id="rId22"/>
+    <hyperlink ref="F23" r:id="rId23"/>
+    <hyperlink ref="F7" r:id="rId24"/>
+    <hyperlink ref="F3" r:id="rId25"/>
+    <hyperlink ref="F31" r:id="rId26"/>
+    <hyperlink ref="F27" r:id="rId27"/>
+    <hyperlink ref="F19" r:id="rId28"/>
+    <hyperlink ref="F15" r:id="rId29"/>
+    <hyperlink ref="F5" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
